--- a/docs/Notes.xlsx
+++ b/docs/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maoch\OneDrive - uniroma1.it\Documents\code\CFL3D-SR\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55844428-6469-4351-B003-63E07D914465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9295C660-A087-4626-9DE1-6797B127AF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t>CFL3D-SR 已经修复</t>
   </si>
   <si>
-    <t>6.7版本遗留下来的bug，原因是浮点数溢出。已经修复。</t>
-  </si>
-  <si>
     <t>CFL3D-SR 支持
 ifort(INTEL), 
 gfortran(GNU),
@@ -224,6 +221,9 @@
     <t>其他的 CFL3D 6.7 遗留的bugs，
 例如clcd_wall/total.dat 变量名缺失一个，
 chdw变量错误地写成了hdw(resp.F)</t>
+  </si>
+  <si>
+    <t>6.7版本遗留下来的bug，原因是浮点数溢出。已经修复</t>
   </si>
 </sst>
 </file>
@@ -289,10 +289,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,7 +730,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="4">
@@ -738,44 +738,44 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="5">
@@ -783,13 +783,13 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4">
         <v>1</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="4">
         <v>7</v>
       </c>
@@ -807,7 +807,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -816,7 +816,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
@@ -825,7 +825,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
@@ -834,7 +834,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
@@ -843,7 +843,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="4">
         <v>2</v>
       </c>
@@ -852,7 +852,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19">
         <v>-2</v>
       </c>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7469ECD5-1EF2-4DBF-892F-E5F1023EC72E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -983,17 +983,17 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="58">
+      <c r="B5" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="58">
-      <c r="B5" s="7" t="s">
+    <row r="6" spans="1:2" ht="43.5">
+      <c r="A6" s="6" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="43.5">
-      <c r="A6" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
